--- a/assets/xlsx/Semana 6.xlsx
+++ b/assets/xlsx/Semana 6.xlsx
@@ -1,32 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\08030478194\Documents\repos\sg_petrobowl\assets\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_A03E632F_DD24_45E2_8703_E8CCC2855257_.wvu.FilterData">Sheet1!$A$1:$C$101</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_F8971B14_1EFD_4770_ACE8_883468462D7B_.wvu.FilterData">Sheet1!$A$2:$C$101</definedName>
+    <definedName name="Z_A03E632F_DD24_45E2_8703_E8CCC2855257_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$1:$C$101</definedName>
+    <definedName name="Z_F8971B14_1EFD_4770_ACE8_883468462D7B_.wvu.FilterData" localSheetId="0" hidden="1">Sheet1!$A$2:$C$101</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A03E632F-DD24-45E2-8703-E8CCC2855257}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F8971B14-1EFD-4770-ACE8-883468462D7B}" name="Filter 1"/>
+    <customWorkbookView name="Filter 1" guid="{F8971B14-1EFD-4770-ACE8-883468462D7B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="Filter 2" guid="{A03E632F-DD24-45E2-8703-E8CCC2855257}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B19">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">DICA: questao relacionada com a Wanda Jablonski, ela meio que  teve uma participacao na criacao da OPEC
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>DICA: questao relacionada com a Wanda Jablonski, ela meio que  teve uma participacao na criacao da OPEC
 	-Azucena Mendez</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -36,12 +52,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="199">
   <si>
-    <t>Pergunta</t>
-  </si>
-  <si>
-    <t>Resposta</t>
-  </si>
-  <si>
     <t>Adendo</t>
   </si>
   <si>
@@ -638,28 +648,37 @@
   <si>
     <t>Who introduced Alfonzo and Tariki?</t>
   </si>
+  <si>
+    <t>Perguntas</t>
+  </si>
+  <si>
+    <t>Respostas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -669,7 +688,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -679,996 +698,1267 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.13"/>
-    <col customWidth="1" min="2" max="2" width="41.5"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3">
+        <v>1984</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3">
-        <v>1984.0</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="s">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="s">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="s">
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="s">
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="s">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="s">
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="s">
+      <c r="C29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="s">
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="s">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="s">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="7" t="s">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="s">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" ht="28.5">
+      <c r="A38" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="s">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" ht="171">
+      <c r="A39" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="s">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" ht="42.75">
+      <c r="A40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="s">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" ht="57">
+      <c r="A41" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B41" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="7" t="s">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" ht="28.5">
+      <c r="A42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="7" t="s">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="42.75">
+      <c r="A43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="s">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="57">
+      <c r="A44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="7" t="s">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" ht="42.75">
+      <c r="A45" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" ht="57">
+      <c r="A46" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" ht="85.5">
+      <c r="A47" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" ht="57">
+      <c r="A48" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="5" t="s">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="42.75">
+      <c r="A49" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="1:3" ht="42.75">
+      <c r="A50" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="5" t="s">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="57">
+      <c r="A51" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" ht="71.25">
+      <c r="A52" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" ht="42.75">
+      <c r="A53" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" ht="42.75">
+      <c r="A54" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:3" ht="28.5">
+      <c r="A55" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="1:3" ht="28.5">
+      <c r="A56" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="5" t="s">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="1:3" ht="57">
+      <c r="A57" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="1:3" ht="28.5">
+      <c r="A58" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="1:3" ht="57">
+      <c r="A59" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="5" t="s">
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="1:3" ht="42.75">
+      <c r="A60" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B60" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="5" t="s">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="1:3" ht="42.75">
+      <c r="A61" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B61" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="5" t="s">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="1:3" ht="28.5">
+      <c r="A62" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B62" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="4"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="1:3" ht="57">
+      <c r="A63" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="1:3" ht="42.75">
+      <c r="A64" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B64" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C63" s="4"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="1:3" ht="14.25">
+      <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" ht="28.5">
+      <c r="A66" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="1:3" ht="42.75">
+      <c r="A67" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="1:3" ht="42.75">
+      <c r="A68" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="5" t="s">
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="1:3" ht="28.5">
+      <c r="A69" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="1:3" ht="28.5">
+      <c r="A70" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C69" s="4"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="5" t="s">
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="1:3" ht="57">
+      <c r="A71" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="4"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="1:3" ht="28.5">
+      <c r="A72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="4"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="5" t="s">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:3" ht="28.5">
+      <c r="A73" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B73" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="4"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="8" t="s">
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="1:3" ht="28.5">
+      <c r="A74" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B74" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="8" t="s">
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="1:3" ht="14.25">
+      <c r="A75" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B75" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C74" s="4"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="8" t="s">
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="1:3" ht="14.25">
+      <c r="A76" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B76" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="8" t="s">
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="1:3" ht="28.5">
+      <c r="A77" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B77" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="8" t="s">
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="1:3" ht="71.25">
+      <c r="A78" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B78" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="1:3" ht="28.5">
+      <c r="A79" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="s">
+      <c r="B79" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="7" t="s">
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="1:3" ht="14.25">
+      <c r="A80" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B80" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="8" t="s">
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" ht="14.25">
+      <c r="A81" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B81" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8" t="s">
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" ht="28.5">
+      <c r="A82" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="7" t="s">
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="1:3" ht="42.75">
+      <c r="A83" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B83" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8" t="s">
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" ht="99.75">
+      <c r="A84" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8" t="s">
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="1:3" ht="28.5">
+      <c r="A85" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B85" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="8" t="s">
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="1:3" ht="14.25">
+      <c r="A86" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B86" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="8" t="s">
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="1:3" ht="14.25">
+      <c r="A87" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B87" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="7" t="s">
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" ht="14.25">
+      <c r="A88" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B88" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="7" t="s">
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" ht="14.25">
+      <c r="A89" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B89" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="7" t="s">
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" ht="28.5">
+      <c r="A90" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B90" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="8" t="s">
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" ht="14.25">
+      <c r="A91" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B91" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="8" t="s">
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" ht="28.5">
+      <c r="A92" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B92" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="5" t="s">
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" ht="14.25">
+      <c r="A93" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="5">
+        <v>1933</v>
+      </c>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="1:3" ht="14.25">
+      <c r="A94" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="5">
-        <v>1933.0</v>
-      </c>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="5" t="s">
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="1:3" ht="28.5">
+      <c r="A95" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="5" t="s">
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="1:3" ht="28.5">
+      <c r="A96" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="5" t="s">
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="1:3" ht="28.5">
+      <c r="A97" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="5" t="s">
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="1:3" ht="28.5">
+      <c r="A98" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B98" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="5" t="s">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="1:3" ht="42.75">
+      <c r="A99" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="5" t="s">
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="1:3" ht="57">
+      <c r="A100" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="5" t="s">
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="1:3" ht="14.25">
+      <c r="A101" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="B101" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C101" s="4"/>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{A03E632F-DD24-45E2-8703-E8CCC2855257}" filter="1" showAutoFilter="1">
+      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+      <autoFilter ref="A1:C101"/>
+    </customSheetView>
     <customSheetView guid="{F8971B14-1EFD-4770-ACE8-883468462D7B}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$2:$C$101">
+      <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+      <autoFilter ref="A2:C101">
         <sortState ref="A2:C101">
           <sortCondition ref="A2:A101"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A03E632F-DD24-45E2-8703-E8CCC2855257}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$C$101">
-        <sortState ref="A1:C101">
-          <sortCondition ref="A1:A101"/>
-        </sortState>
-      </autoFilter>
-    </customSheetView>
   </customSheetViews>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>